--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_23_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_23_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_0</t>
+          <t>model_23_8_21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9290204878319712</v>
+        <v>0.9320652716193981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7973842378174936</v>
+        <v>0.8269380205396948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4271262735813057</v>
+        <v>0.9153023320235862</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9075680975384416</v>
+        <v>0.7801628816675538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8654875201977226</v>
+        <v>0.8656521969375315</v>
       </c>
       <c r="G2" t="n">
-        <v>0.47464032469821</v>
+        <v>0.4542798414917461</v>
       </c>
       <c r="H2" t="n">
-        <v>1.354892534674219</v>
+        <v>1.157266253528204</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3982261205660498</v>
+        <v>0.8202376100400226</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6337975035203171</v>
+        <v>1.566042140688368</v>
       </c>
       <c r="K2" t="n">
-        <v>0.51601177503994</v>
+        <v>1.193139999983677</v>
       </c>
       <c r="L2" t="n">
-        <v>1.67085739621562</v>
+        <v>1.020971956620653</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6889414523007089</v>
+        <v>0.6740028497653004</v>
       </c>
       <c r="N2" t="n">
-        <v>1.10020637011957</v>
+        <v>1.095907851831438</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7182711162305623</v>
+        <v>0.702696546458051</v>
       </c>
       <c r="P2" t="n">
-        <v>83.49039594587667</v>
+        <v>83.57808375976137</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.4643047654729</v>
+        <v>133.5519925793576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_1</t>
+          <t>model_23_8_20</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9298858173424148</v>
+        <v>0.9323681964137409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7973265700849261</v>
+        <v>0.8269338907384577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4303445020045911</v>
+        <v>0.9153572391532971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9069065462888068</v>
+        <v>0.7831574278062835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8651878507729704</v>
+        <v>0.866883153186355</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4688538622773973</v>
+        <v>0.4522541819971356</v>
       </c>
       <c r="H3" t="n">
-        <v>1.355278159067433</v>
+        <v>1.157293869528092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3959890086843231</v>
+        <v>0.8197058729340989</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6383337028119371</v>
+        <v>1.544710049542619</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5171613557481302</v>
+        <v>1.182207903550226</v>
       </c>
       <c r="L3" t="n">
-        <v>1.658187999011997</v>
+        <v>1.018809008899623</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6847290429632712</v>
+        <v>0.6724984624496443</v>
       </c>
       <c r="N3" t="n">
-        <v>1.098984728457767</v>
+        <v>1.095480193298248</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7138793759067403</v>
+        <v>0.7011281142598563</v>
       </c>
       <c r="P3" t="n">
-        <v>83.51492830676541</v>
+        <v>83.58702181531595</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.4888371263617</v>
+        <v>133.5609306349122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_2</t>
+          <t>model_23_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9307260459102247</v>
+        <v>0.9317510049163202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7972541750622424</v>
+        <v>0.8269235555365665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4333962142282626</v>
+        <v>0.9152026460526509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9062207952152163</v>
+        <v>0.7771879442360577</v>
       </c>
       <c r="F4" t="n">
-        <v>0.864851476211111</v>
+        <v>0.8644047249219589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4632352499755561</v>
+        <v>0.4563813443822929</v>
       </c>
       <c r="H4" t="n">
-        <v>1.355762264917468</v>
+        <v>1.157362981070728</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3938676484894439</v>
+        <v>0.821202998869586</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6430358381883985</v>
+        <v>1.58723454631565</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5184517433389212</v>
+        <v>1.204218772592618</v>
       </c>
       <c r="L4" t="n">
-        <v>1.64567829207888</v>
+        <v>1.022993783322356</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6806138773016284</v>
+        <v>0.6755600227827968</v>
       </c>
       <c r="N4" t="n">
-        <v>1.097798523420859</v>
+        <v>1.096351522471077</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7095890191233141</v>
+        <v>0.7043200115546948</v>
       </c>
       <c r="P4" t="n">
-        <v>83.53904050927078</v>
+        <v>83.56885307483242</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.512949328867</v>
+        <v>133.5427618944287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_3</t>
+          <t>model_23_8_19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9315415784706019</v>
+        <v>0.9326587055999914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7971673390171484</v>
+        <v>0.8269100507944741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.436287638555604</v>
+        <v>0.9153640314185962</v>
       </c>
       <c r="E5" t="n">
-        <v>0.90551047648594</v>
+        <v>0.7861703907420204</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8644786224321372</v>
+        <v>0.8680952332734618</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4577817799891312</v>
+        <v>0.4503115457310061</v>
       </c>
       <c r="H5" t="n">
-        <v>1.356342937950854</v>
+        <v>1.157453287343283</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3918577104530363</v>
+        <v>0.8196400946005419</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6479064318398301</v>
+        <v>1.523246763626723</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5198820711464333</v>
+        <v>1.171443445910092</v>
       </c>
       <c r="L5" t="n">
-        <v>1.633332318781986</v>
+        <v>1.016512759233221</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6765957286217016</v>
+        <v>0.671052565549828</v>
       </c>
       <c r="N5" t="n">
-        <v>1.096647183335621</v>
+        <v>1.095070062682365</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7053998095353683</v>
+        <v>0.6996206625355956</v>
       </c>
       <c r="P5" t="n">
-        <v>83.5627253426366</v>
+        <v>83.59563122383338</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.5366341622328</v>
+        <v>133.5695400434296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_4</t>
+          <t>model_23_8_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9323328247209477</v>
+        <v>0.9314264618690944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7970664479393054</v>
+        <v>0.8268915751158509</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4390283159987954</v>
+        <v>0.9150609153386228</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9047751271072</v>
+        <v>0.774234781083478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8640697302019407</v>
+        <v>0.8631430548195609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.452490712669715</v>
+        <v>0.4585515652334752</v>
       </c>
       <c r="H6" t="n">
-        <v>1.357017597052952</v>
+        <v>1.157576834291309</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3899525622579045</v>
+        <v>0.822575561596768</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6529486584742374</v>
+        <v>1.608271839655141</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5214506483209371</v>
+        <v>1.215423638110624</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62114780433501</v>
+        <v>1.024877149650076</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6726742991000287</v>
+        <v>0.6771643561451498</v>
       </c>
       <c r="N6" t="n">
-        <v>1.095530129805721</v>
+        <v>1.09680970089069</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7013114366404798</v>
+        <v>0.705992644709711</v>
       </c>
       <c r="P6" t="n">
-        <v>83.58597608107921</v>
+        <v>83.55936505708357</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.5598849006754</v>
+        <v>133.5332738766798</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_5</t>
+          <t>model_23_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9331003585226004</v>
+        <v>0.9329356503090664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7969518781257927</v>
+        <v>0.8268653998189449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4416263991293441</v>
+        <v>0.9153198855669417</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9040147306175734</v>
+        <v>0.7891996585645831</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8636255531400444</v>
+        <v>0.8692860967898293</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4473582106038954</v>
+        <v>0.4484596151862083</v>
       </c>
       <c r="H7" t="n">
-        <v>1.357783725923456</v>
+        <v>1.157751868622245</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3881465367442989</v>
+        <v>0.8200676162634097</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6581626309661637</v>
+        <v>1.501667327444383</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5231545838552313</v>
+        <v>1.160867412186351</v>
       </c>
       <c r="L7" t="n">
-        <v>1.60913188247286</v>
+        <v>1.014083522811357</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6688484212464699</v>
+        <v>0.6696712739741852</v>
       </c>
       <c r="N7" t="n">
-        <v>1.094446552673976</v>
+        <v>1.094679081916612</v>
       </c>
       <c r="O7" t="n">
-        <v>0.697322683246036</v>
+        <v>0.6981805665179101</v>
       </c>
       <c r="P7" t="n">
-        <v>83.60879127857325</v>
+        <v>83.60387329143083</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.5827000981695</v>
+        <v>133.5777821110271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_6</t>
+          <t>model_23_8_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9338445498937094</v>
+        <v>0.9310925646332233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7968240121257205</v>
+        <v>0.8268431343409304</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4440880914911282</v>
+        <v>0.9148799300582477</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9032292640260113</v>
+        <v>0.7713045377208698</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8631466030782632</v>
+        <v>0.8618691638507681</v>
       </c>
       <c r="G8" t="n">
-        <v>0.442381799478604</v>
+        <v>0.4607843375872009</v>
       </c>
       <c r="H8" t="n">
-        <v>1.358638766454708</v>
+        <v>1.157900757976252</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3864353215950396</v>
+        <v>0.8243282773134346</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6635485069632271</v>
+        <v>1.629145860489863</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5249919142791333</v>
+        <v>1.226737036884834</v>
       </c>
       <c r="L8" t="n">
-        <v>1.597286146824873</v>
+        <v>1.026620964125936</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6651178838962338</v>
+        <v>0.6788109733844916</v>
       </c>
       <c r="N8" t="n">
-        <v>1.093395929561822</v>
+        <v>1.097281085223685</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6934333291975234</v>
+        <v>0.7077093618538991</v>
       </c>
       <c r="P8" t="n">
-        <v>83.63116394007874</v>
+        <v>83.54965031957845</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.605072759675</v>
+        <v>133.5235591391747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_7</t>
+          <t>model_23_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9345658831278514</v>
+        <v>0.9331979602407745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7966831720294332</v>
+        <v>0.8267988414238012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.446420767136213</v>
+        <v>0.9152213873761077</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9024185834368008</v>
+        <v>0.7922436106780251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.862633422686762</v>
+        <v>0.8704531999243015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4375582408204617</v>
+        <v>0.446705547465051</v>
       </c>
       <c r="H9" t="n">
-        <v>1.35958056482709</v>
+        <v>1.158196944917045</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3848137908285856</v>
+        <v>0.8210215022743612</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6691072731457985</v>
+        <v>1.479983285549881</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5269605578215277</v>
+        <v>1.150502393912121</v>
       </c>
       <c r="L9" t="n">
-        <v>1.585614357865472</v>
+        <v>1.011524442072859</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6614818522230687</v>
+        <v>0.6683603425286775</v>
       </c>
       <c r="N9" t="n">
-        <v>1.09237757676068</v>
+        <v>1.094308762013024</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6896425041284084</v>
+        <v>0.6968138260067648</v>
       </c>
       <c r="P9" t="n">
-        <v>83.65309092033812</v>
+        <v>83.61171126386014</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6269997399343</v>
+        <v>133.5856200834564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_8</t>
+          <t>model_23_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9352648306704312</v>
+        <v>0.9334443168950542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7965298125877953</v>
+        <v>0.8267092479612093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4486354358957764</v>
+        <v>0.9150652985338042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9015824846022416</v>
+        <v>0.7952998302384511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8620868301977394</v>
+        <v>0.8715938241040994</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4328843753848728</v>
+        <v>0.4450581593835139</v>
       </c>
       <c r="H10" t="n">
-        <v>1.360606080119478</v>
+        <v>1.158796056813937</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3832742910962917</v>
+        <v>0.8225331134204973</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6748403300225658</v>
+        <v>1.458211854687211</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5290573756104693</v>
+        <v>1.140372534674806</v>
       </c>
       <c r="L10" t="n">
-        <v>1.574114792649496</v>
+        <v>1.008838225116762</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6579394921912446</v>
+        <v>0.6671267940830393</v>
       </c>
       <c r="N10" t="n">
-        <v>1.091390827288803</v>
+        <v>1.093960964383453</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6859493384963334</v>
+        <v>0.6955277628499985</v>
       </c>
       <c r="P10" t="n">
-        <v>83.67456923616521</v>
+        <v>83.61910062022385</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.6484780557614</v>
+        <v>133.5930094398201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_9</t>
+          <t>model_23_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9359419073602669</v>
+        <v>0.9336734803971787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7963642206807897</v>
+        <v>0.8265955078371703</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4507349696756593</v>
+        <v>0.9148478294163029</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9007215572188257</v>
+        <v>0.7983661893062018</v>
       </c>
       <c r="F11" t="n">
-        <v>0.861507643507618</v>
+        <v>0.8727050573248022</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4283567604422898</v>
+        <v>0.4435257419896068</v>
       </c>
       <c r="H11" t="n">
-        <v>1.361713393964105</v>
+        <v>1.15955663754711</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3818148260281572</v>
+        <v>0.8246391495541783</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6807436340960497</v>
+        <v>1.436368193548432</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5312792300621034</v>
+        <v>1.130503695924129</v>
       </c>
       <c r="L11" t="n">
-        <v>1.562791106587687</v>
+        <v>1.006029229541064</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6544896946799772</v>
+        <v>0.6659772833885603</v>
       </c>
       <c r="N11" t="n">
-        <v>1.090434954314917</v>
+        <v>1.093637439439277</v>
       </c>
       <c r="O11" t="n">
-        <v>0.682352675962946</v>
+        <v>0.6943293151054405</v>
       </c>
       <c r="P11" t="n">
-        <v>83.69559775635396</v>
+        <v>83.62599887219864</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.6695065759502</v>
+        <v>133.5999076917949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_10</t>
+          <t>model_23_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.936597449929236</v>
+        <v>0.9338842499740226</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7961868969844296</v>
+        <v>0.826456446414592</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4527283944835296</v>
+        <v>0.9145657528383274</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8998355910239167</v>
+        <v>0.8014410949492317</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8608964483485724</v>
+        <v>0.8737844938883121</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4239731442650978</v>
+        <v>0.4421163248587466</v>
       </c>
       <c r="H12" t="n">
-        <v>1.362899158338166</v>
+        <v>1.16048654192021</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3804291213060347</v>
+        <v>0.8273708637051663</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6868186271188347</v>
+        <v>1.414463649619945</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5336238742124346</v>
+        <v>1.12091724261406</v>
       </c>
       <c r="L12" t="n">
-        <v>1.551648135126483</v>
+        <v>1.003103535988479</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6511322018339269</v>
+        <v>0.6649182843468411</v>
       </c>
       <c r="N12" t="n">
-        <v>1.089509482452843</v>
+        <v>1.093339882389615</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6788522476954711</v>
+        <v>0.693225232282085</v>
       </c>
       <c r="P12" t="n">
-        <v>83.71617032950718</v>
+        <v>83.6323645062327</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.6900791491034</v>
+        <v>133.6062733258289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_11</t>
+          <t>model_23_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9372320251129015</v>
+        <v>0.9340752435149845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7959981999217072</v>
+        <v>0.826290995126123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4546219965471678</v>
+        <v>0.9142151489989109</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8989250704971423</v>
+        <v>0.8045220235475254</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8602542711547205</v>
+        <v>0.8748289772060343</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4197297370899764</v>
+        <v>0.4408391501708902</v>
       </c>
       <c r="H13" t="n">
-        <v>1.364160976465461</v>
+        <v>1.161592915448035</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3791128071360471</v>
+        <v>0.8307662164012285</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6930619870563161</v>
+        <v>1.392516200281187</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5360873704930529</v>
+        <v>1.111641208341208</v>
       </c>
       <c r="L13" t="n">
-        <v>1.540681056984176</v>
+        <v>1.000063213357073</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6478655239245074</v>
+        <v>0.6639571900137012</v>
       </c>
       <c r="N13" t="n">
-        <v>1.088613611605316</v>
+        <v>1.093070244449434</v>
       </c>
       <c r="O13" t="n">
-        <v>0.675446500544492</v>
+        <v>0.6922232221734439</v>
       </c>
       <c r="P13" t="n">
-        <v>83.73628851589589</v>
+        <v>83.6381504178204</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.7101973354921</v>
+        <v>133.6120592374166</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9378460770665777</v>
+        <v>0.9342450933866233</v>
       </c>
       <c r="C14" t="n">
-        <v>0.795798513227703</v>
+        <v>0.8260979868422204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4564210448242707</v>
+        <v>0.9137922306612576</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8979901591379114</v>
+        <v>0.8076071112299079</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8595817181227104</v>
+        <v>0.8758357095773694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4156235688482942</v>
+        <v>0.4397033632971549</v>
       </c>
       <c r="H14" t="n">
-        <v>1.365496282307739</v>
+        <v>1.162883562731214</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3778622208670966</v>
+        <v>0.8348618843789519</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6994725928072881</v>
+        <v>1.370539123093415</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5386673934349104</v>
+        <v>1.102700439425471</v>
       </c>
       <c r="L14" t="n">
-        <v>1.529893535836474</v>
+        <v>0.9969174530572054</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6446887379567711</v>
+        <v>0.6631013220444933</v>
       </c>
       <c r="N14" t="n">
-        <v>1.087746714729537</v>
+        <v>1.092830456395355</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6721344722212557</v>
+        <v>0.6913309181328958</v>
       </c>
       <c r="P14" t="n">
-        <v>83.75595062190095</v>
+        <v>83.64330990750436</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.7298594414972</v>
+        <v>133.6172187271006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_13</t>
+          <t>model_23_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.938439958314858</v>
+        <v>0.9343924445429634</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7955881735297621</v>
+        <v>0.8258762685667602</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4581325457458676</v>
+        <v>0.9132932397428712</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8970308364412538</v>
+        <v>0.810693946026554</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8588794160557831</v>
+        <v>0.8768016513384181</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4116522822064719</v>
+        <v>0.438718025436219</v>
       </c>
       <c r="H15" t="n">
-        <v>1.366902824836395</v>
+        <v>1.164366193860135</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3766724920648813</v>
+        <v>0.8396942620359478</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7060505849725449</v>
+        <v>1.348549600079468</v>
       </c>
       <c r="K15" t="n">
-        <v>0.541361538518713</v>
+        <v>1.094121931057708</v>
       </c>
       <c r="L15" t="n">
-        <v>1.519291255876056</v>
+        <v>0.9936676545444351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6416013421171062</v>
+        <v>0.6623579284920043</v>
       </c>
       <c r="N15" t="n">
-        <v>1.08690829414373</v>
+        <v>1.092622431233463</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6689156395489058</v>
+        <v>0.6905558767778404</v>
       </c>
       <c r="P15" t="n">
-        <v>83.77515252241444</v>
+        <v>83.64779676671266</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.7490613420107</v>
+        <v>133.6217055863089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_14</t>
+          <t>model_23_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9390142629956023</v>
+        <v>0.9345158379087061</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7953676473981145</v>
+        <v>0.8256246961389292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4597620729455172</v>
+        <v>0.9127137009995135</v>
       </c>
       <c r="E16" t="n">
-        <v>0.896047940695201</v>
+        <v>0.8137801473550376</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8581486226844685</v>
+        <v>0.8777234294278534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4078119041619055</v>
+        <v>0.4378928934313234</v>
       </c>
       <c r="H16" t="n">
-        <v>1.368377484094153</v>
+        <v>1.166048459843426</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3755397462866275</v>
+        <v>0.8453066889791514</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7127902154840783</v>
+        <v>1.326564589669421</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5441649808853529</v>
+        <v>1.085935639324286</v>
       </c>
       <c r="L16" t="n">
-        <v>1.508866630459075</v>
+        <v>0.9903227453980995</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6386015222045007</v>
+        <v>0.6617347606339895</v>
       </c>
       <c r="N16" t="n">
-        <v>1.086097511065032</v>
+        <v>1.092448228834768</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6657881110921374</v>
+        <v>0.6899061793739747</v>
       </c>
       <c r="P16" t="n">
-        <v>83.79389846018204</v>
+        <v>83.65156186810862</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.7678072797783</v>
+        <v>133.6254706877048</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_15</t>
+          <t>model_23_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9395693852421103</v>
+        <v>0.9346139416054582</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7951372628227167</v>
+        <v>0.8253421172713917</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4613170321296913</v>
+        <v>0.9120500269428945</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8950417239967052</v>
+        <v>0.816864339171935</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8573902308003782</v>
+        <v>0.8785985237757021</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4040997991434034</v>
+        <v>0.4372368735594165</v>
       </c>
       <c r="H17" t="n">
-        <v>1.369918066810661</v>
+        <v>1.167938066031805</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3744588355466232</v>
+        <v>0.8517339075207331</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7196897557350467</v>
+        <v>1.30459389431158</v>
       </c>
       <c r="K17" t="n">
-        <v>0.547074295640835</v>
+        <v>1.07816394491338</v>
       </c>
       <c r="L17" t="n">
-        <v>1.498625302987306</v>
+        <v>0.9868885955107786</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6356884450290121</v>
+        <v>0.6612388929573157</v>
       </c>
       <c r="N17" t="n">
-        <v>1.085313809069962</v>
+        <v>1.092309729498177</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6627510181903873</v>
+        <v>0.6893892015837174</v>
       </c>
       <c r="P17" t="n">
-        <v>83.81218680788919</v>
+        <v>83.6545603719627</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.7860956274854</v>
+        <v>133.6284691915589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_16</t>
+          <t>model_23_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9401058003019824</v>
+        <v>0.9346852849835214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.794897499449986</v>
+        <v>0.8250273350948021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4628002352894444</v>
+        <v>0.9112976926732228</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8940126721068212</v>
+        <v>0.8199439501208682</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8566049221083756</v>
+        <v>0.8794234493179152</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4005127891680745</v>
+        <v>0.436759800061801</v>
       </c>
       <c r="H18" t="n">
-        <v>1.37152136558812</v>
+        <v>1.170043015896098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3734278051238943</v>
+        <v>0.8590197381468918</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7267458749042113</v>
+        <v>1.282655831442409</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5500868676543039</v>
+        <v>1.070837798605168</v>
       </c>
       <c r="L18" t="n">
-        <v>1.488561401775099</v>
+        <v>0.9833692900513834</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6328607976230433</v>
+        <v>0.6608780523377977</v>
       </c>
       <c r="N18" t="n">
-        <v>1.084556517220731</v>
+        <v>1.092209009435029</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6598029919803092</v>
+        <v>0.6890129992319834</v>
       </c>
       <c r="P18" t="n">
-        <v>83.83001915995928</v>
+        <v>83.65674378322454</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.8039279795555</v>
+        <v>133.6306526028208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_17</t>
+          <t>model_23_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.940623892833504</v>
+        <v>0.9347283335943881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7946487273473256</v>
+        <v>0.8246791673128477</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4642180372658907</v>
+        <v>0.9104523611117439</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8929613679283903</v>
+        <v>0.8230172378975158</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8557938149453879</v>
+        <v>0.8801951360359953</v>
       </c>
       <c r="G19" t="n">
-        <v>0.397048302024193</v>
+        <v>0.4364719338027147</v>
       </c>
       <c r="H19" t="n">
-        <v>1.3731849057841</v>
+        <v>1.172371215457192</v>
       </c>
       <c r="I19" t="n">
-        <v>0.372442237528849</v>
+        <v>0.8672061824285917</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7339545760775653</v>
+        <v>1.260762812623747</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5531984068032072</v>
+        <v>1.063984465169046</v>
       </c>
       <c r="L19" t="n">
-        <v>1.478680684545435</v>
+        <v>0.9797735672263799</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6301176890265762</v>
+        <v>0.6606602256854235</v>
       </c>
       <c r="N19" t="n">
-        <v>1.083825092470347</v>
+        <v>1.09214823492557</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6569431035718729</v>
+        <v>0.6887858992480542</v>
       </c>
       <c r="P19" t="n">
-        <v>83.84739467625721</v>
+        <v>83.65806240809054</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8213034958534</v>
+        <v>133.6319712276868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_18</t>
+          <t>model_23_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9411241762560857</v>
+        <v>0.934741752058117</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7943912446418985</v>
+        <v>0.8242964400180248</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4655761392303751</v>
+        <v>0.9095099860551698</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8918881562346886</v>
+        <v>0.8260819002833755</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8549577270073</v>
+        <v>0.8809104397815722</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3937029044737957</v>
+        <v>0.4363822044739735</v>
       </c>
       <c r="H20" t="n">
-        <v>1.37490669382089</v>
+        <v>1.17493051463997</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3714981696623913</v>
+        <v>0.8763324250115745</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7413134951747874</v>
+        <v>1.238931238048698</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5564057762729872</v>
+        <v>1.05763186772025</v>
       </c>
       <c r="L20" t="n">
-        <v>1.468977185409626</v>
+        <v>0.9761043862713851</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6274574921648444</v>
+        <v>0.660592313362768</v>
       </c>
       <c r="N20" t="n">
-        <v>1.083118809991408</v>
+        <v>1.09212929121207</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6541696566223705</v>
+        <v>0.6887150957572254</v>
       </c>
       <c r="P20" t="n">
-        <v>83.86431740736292</v>
+        <v>83.65847360774062</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.8382262269592</v>
+        <v>133.6323824273369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_19</t>
+          <t>model_23_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9416070337153478</v>
+        <v>0.9347239801308592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7941254754381399</v>
+        <v>0.8238779439900736</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4668779819251579</v>
+        <v>0.9084662615356021</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8907939029368885</v>
+        <v>0.8291359742519786</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8540977145915433</v>
+        <v>0.8815662533845114</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3904740344203558</v>
+        <v>0.4365010454333784</v>
       </c>
       <c r="H21" t="n">
-        <v>1.376683893710178</v>
+        <v>1.177728999505877</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3705932097348842</v>
+        <v>0.8864401661799479</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7488166947183974</v>
+        <v>1.217175091625876</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5597049239347012</v>
+        <v>1.051807600971085</v>
       </c>
       <c r="L21" t="n">
-        <v>1.459458396789077</v>
+        <v>0.9723719184163448</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6248792158652389</v>
+        <v>0.6606822575439562</v>
       </c>
       <c r="N21" t="n">
-        <v>1.08243712887245</v>
+        <v>1.092154380991728</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6514816177629231</v>
+        <v>0.6888088690484169</v>
       </c>
       <c r="P21" t="n">
-        <v>83.88078761014972</v>
+        <v>83.65792901733795</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.854696429746</v>
+        <v>133.6318378369342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_20</t>
+          <t>model_23_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9420730004839809</v>
+        <v>0.9346734956091775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7938518042707446</v>
+        <v>0.8234225024100195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4681275972084451</v>
+        <v>0.9073164831971506</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8896792737272514</v>
+        <v>0.8321773836338205</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8532147671553135</v>
+        <v>0.8821591545043502</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3873581124929269</v>
+        <v>0.4368386356623244</v>
       </c>
       <c r="H22" t="n">
-        <v>1.378513934066691</v>
+        <v>1.180774539448815</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3697245550497157</v>
+        <v>0.8975749643265717</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7564596101145471</v>
+        <v>1.195509163255006</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5630920540694333</v>
+        <v>1.046542058654879</v>
       </c>
       <c r="L22" t="n">
-        <v>1.450114245408717</v>
+        <v>0.9685855001011643</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6223810026767582</v>
+        <v>0.6609376942362453</v>
       </c>
       <c r="N22" t="n">
-        <v>1.08177929343438</v>
+        <v>1.092225653257632</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6488770504669946</v>
+        <v>0.6890751802095236</v>
       </c>
       <c r="P22" t="n">
-        <v>83.89681131710147</v>
+        <v>83.65638281371034</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8707201366977</v>
+        <v>133.6302916333066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_21</t>
+          <t>model_23_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9425224236177597</v>
+        <v>0.9345889795116745</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7935705788681531</v>
+        <v>0.8229288412048663</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4693294346245404</v>
+        <v>0.9060568108385597</v>
       </c>
       <c r="E23" t="n">
-        <v>0.888544670446604</v>
+        <v>0.8352043950438766</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8523096808551478</v>
+        <v>0.8826863659399931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3843528179279448</v>
+        <v>0.4374037951954876</v>
       </c>
       <c r="H23" t="n">
-        <v>1.380394489628745</v>
+        <v>1.184075654200774</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3688891125609238</v>
+        <v>0.9097740091117461</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7642394859756911</v>
+        <v>1.173945800960001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.566564112491071</v>
+        <v>1.041859905035874</v>
       </c>
       <c r="L23" t="n">
-        <v>1.440948181976519</v>
+        <v>0.9647449115192919</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6199619487742331</v>
+        <v>0.6613650997712894</v>
       </c>
       <c r="N23" t="n">
-        <v>1.081144813716104</v>
+        <v>1.092344970101165</v>
       </c>
       <c r="O23" t="n">
-        <v>0.646355012431707</v>
+        <v>0.6895207812830461</v>
       </c>
       <c r="P23" t="n">
-        <v>83.91238870308473</v>
+        <v>83.65379698812264</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.886297522681</v>
+        <v>133.6277058077189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_22</t>
+          <t>model_23_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9429556988176981</v>
+        <v>0.9344688579549344</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7932821670162207</v>
+        <v>0.8223958154554306</v>
       </c>
       <c r="D24" t="n">
-        <v>0.470488154742807</v>
+        <v>0.9046824809723988</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8873905524309746</v>
+        <v>0.8382149768572807</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8513831573288153</v>
+        <v>0.8831444766677531</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3814555046709076</v>
+        <v>0.4382070485985177</v>
       </c>
       <c r="H24" t="n">
-        <v>1.38232310101063</v>
+        <v>1.187639999841609</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3680836425310731</v>
+        <v>0.9230834315758971</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7721531726746951</v>
+        <v>1.152499477320281</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5701184076028841</v>
+        <v>1.037791433343352</v>
       </c>
       <c r="L24" t="n">
-        <v>1.431961341564889</v>
+        <v>0.9608630637101521</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6176208421603885</v>
+        <v>0.6619720904981703</v>
       </c>
       <c r="N24" t="n">
-        <v>1.080533131080897</v>
+        <v>1.092514553475387</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6439142400625524</v>
+        <v>0.6901536128618142</v>
       </c>
       <c r="P24" t="n">
-        <v>83.92752213527854</v>
+        <v>83.65012753320873</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.9014309548748</v>
+        <v>133.6240363528049</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_23</t>
+          <t>model_23_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9433732934717998</v>
+        <v>0.9343117282844249</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7929868979993644</v>
+        <v>0.8218222144941342</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4716065340917714</v>
+        <v>0.9031895440689904</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8862182278802702</v>
+        <v>0.8412076672464619</v>
       </c>
       <c r="F25" t="n">
-        <v>0.850436755936671</v>
+        <v>0.88353073930613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.378663047296083</v>
+        <v>0.4392577754287301</v>
       </c>
       <c r="H25" t="n">
-        <v>1.384297566285937</v>
+        <v>1.191475672110988</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3673062148905292</v>
+        <v>0.9375414801485356</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7801916999987554</v>
+        <v>1.131180605880185</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5737489574446423</v>
+        <v>1.03436104301436</v>
       </c>
       <c r="L25" t="n">
-        <v>1.423149242899589</v>
+        <v>0.9569467328148781</v>
       </c>
       <c r="M25" t="n">
-        <v>0.615356032956599</v>
+        <v>0.6627652491106713</v>
       </c>
       <c r="N25" t="n">
-        <v>1.079943585686871</v>
+        <v>1.092736383598459</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6415530132421562</v>
+        <v>0.690980537878514</v>
       </c>
       <c r="P25" t="n">
-        <v>83.94221705322359</v>
+        <v>83.64533770093897</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.9161258728198</v>
+        <v>133.6192465205352</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_23_8_24</t>
+          <t>model_23_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.943775635279241</v>
+        <v>0.9341162276166901</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7926851218871591</v>
+        <v>0.82120683624003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4726899602488653</v>
+        <v>0.901573806745339</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8850278795256369</v>
+        <v>0.84418032574774</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8494710411023207</v>
+        <v>0.8838420161796873</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3759725857771102</v>
+        <v>0.4405650892940705</v>
       </c>
       <c r="H26" t="n">
-        <v>1.386315544537805</v>
+        <v>1.195590709329739</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3665530845311453</v>
+        <v>0.9531887648078176</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7883538149763176</v>
+        <v>1.110004434548476</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5774535967954888</v>
+        <v>1.031596599678147</v>
       </c>
       <c r="L26" t="n">
-        <v>1.414505737702554</v>
+        <v>0.9530006373731037</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6131660344287755</v>
+        <v>0.6637507734790751</v>
       </c>
       <c r="N26" t="n">
-        <v>1.079375573723425</v>
+        <v>1.093012384541143</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6392697819430813</v>
+        <v>0.6920080180595976</v>
       </c>
       <c r="P26" t="n">
-        <v>83.95647809683516</v>
+        <v>83.63939416443917</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.9303869164314</v>
+        <v>133.6133029840354</v>
       </c>
     </row>
   </sheetData>
